--- a/Dienynas JAVA 0605.xlsx
+++ b/Dienynas JAVA 0605.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="9555" tabRatio="793" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="9555" tabRatio="793" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1. Tarnyb. stotys" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="185">
   <si>
     <t>mėnuo / diena</t>
   </si>
@@ -510,6 +510,72 @@
   </si>
   <si>
     <t>09 30</t>
+  </si>
+  <si>
+    <t>10 01</t>
+  </si>
+  <si>
+    <t>10 02</t>
+  </si>
+  <si>
+    <t>10 03</t>
+  </si>
+  <si>
+    <t>10 04</t>
+  </si>
+  <si>
+    <t>10 07</t>
+  </si>
+  <si>
+    <t>10 08</t>
+  </si>
+  <si>
+    <t>10 09</t>
+  </si>
+  <si>
+    <t>10 10</t>
+  </si>
+  <si>
+    <t>10 11</t>
+  </si>
+  <si>
+    <t>10 14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>10 15</t>
+  </si>
+  <si>
+    <t>10 16</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 18 </t>
+  </si>
+  <si>
+    <t>10 21</t>
+  </si>
+  <si>
+    <t>10 22</t>
+  </si>
+  <si>
+    <t>10 23</t>
+  </si>
+  <si>
+    <t>10 24</t>
+  </si>
+  <si>
+    <t>10 25</t>
+  </si>
+  <si>
+    <t>10 28</t>
   </si>
 </sst>
 </file>
@@ -804,6 +870,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -821,9 +890,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1129,7 +1195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
@@ -1216,10 +1282,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -1269,25 +1335,25 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="38" t="s">
+      <c r="AB3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AD3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AE3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="34" t="s">
+      <c r="AF3" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="15" t="s">
         <v>125</v>
       </c>
@@ -1335,11 +1401,11 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
@@ -1958,7 +2024,7 @@
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2045,10 +2111,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -2063,13 +2129,27 @@
       <c r="F3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
@@ -2084,25 +2164,25 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="38" t="s">
+      <c r="AB3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AD3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AE3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="34" t="s">
+      <c r="AF3" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="14" t="s">
         <v>62</v>
       </c>
@@ -2115,13 +2195,27 @@
       <c r="F4" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="G4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
@@ -2136,11 +2230,11 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
@@ -2161,13 +2255,27 @@
       <c r="F5" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="G5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
@@ -2263,7 +2371,9 @@
       <c r="X7" s="18"/>
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
-      <c r="AB7" s="18"/>
+      <c r="AB7" s="18" t="s">
+        <v>168</v>
+      </c>
       <c r="AC7" s="10">
         <v>8</v>
       </c>
@@ -2302,7 +2412,9 @@
       <c r="X8" s="18"/>
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
-      <c r="AB8" s="18"/>
+      <c r="AB8" s="18" t="s">
+        <v>169</v>
+      </c>
       <c r="AC8" s="10">
         <v>8</v>
       </c>
@@ -2382,7 +2494,9 @@
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
-      <c r="AB10" s="18"/>
+      <c r="AB10" s="18" t="s">
+        <v>170</v>
+      </c>
       <c r="AC10" s="10">
         <v>8</v>
       </c>
@@ -2421,7 +2535,9 @@
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
       <c r="Z11" s="18"/>
-      <c r="AB11" s="18"/>
+      <c r="AB11" s="18" t="s">
+        <v>171</v>
+      </c>
       <c r="AC11" s="10">
         <v>8</v>
       </c>
@@ -2460,7 +2576,9 @@
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
-      <c r="AB12" s="18"/>
+      <c r="AB12" s="18" t="s">
+        <v>172</v>
+      </c>
       <c r="AC12" s="10">
         <v>8</v>
       </c>
@@ -2540,7 +2658,9 @@
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
-      <c r="AB14" s="18"/>
+      <c r="AB14" s="18" t="s">
+        <v>174</v>
+      </c>
       <c r="AC14" s="10">
         <v>8</v>
       </c>
@@ -2620,7 +2740,9 @@
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
-      <c r="AB16" s="18"/>
+      <c r="AB16" s="18" t="s">
+        <v>175</v>
+      </c>
       <c r="AC16" s="10">
         <v>8</v>
       </c>
@@ -2659,9 +2781,7 @@
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
-      <c r="AB17" s="18" t="s">
-        <v>8</v>
-      </c>
+      <c r="AB17" s="18"/>
       <c r="AC17" s="10">
         <f>SUM(AC5:AC16)</f>
         <v>88</v>
@@ -2690,7 +2810,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2776,10 +2896,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -2788,14 +2908,30 @@
       <c r="D3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="E3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
@@ -2811,39 +2947,55 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="34" t="s">
+      <c r="AB3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AD3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AE3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="34" t="s">
+      <c r="AF3" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="15" t="s">
         <v>100</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
@@ -2859,11 +3011,11 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
     </row>
     <row r="5" spans="1:32" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -2878,14 +3030,30 @@
       <c r="D5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -2941,7 +3109,9 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="10"/>
+      <c r="AB6" s="10" t="s">
+        <v>177</v>
+      </c>
       <c r="AC6" s="10">
         <v>4</v>
       </c>
@@ -2980,7 +3150,9 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="10"/>
+      <c r="AB7" s="10" t="s">
+        <v>177</v>
+      </c>
       <c r="AC7" s="10">
         <v>4</v>
       </c>
@@ -3019,7 +3191,9 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="10"/>
+      <c r="AB8" s="10" t="s">
+        <v>178</v>
+      </c>
       <c r="AC8" s="10">
         <v>8</v>
       </c>
@@ -3058,7 +3232,9 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="10"/>
+      <c r="AB9" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="AC9" s="10">
         <v>8</v>
       </c>
@@ -3097,7 +3273,9 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="10"/>
+      <c r="AB10" s="10" t="s">
+        <v>180</v>
+      </c>
       <c r="AC10" s="10">
         <v>8</v>
       </c>
@@ -3177,7 +3355,9 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="10"/>
+      <c r="AB12" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="AC12" s="10">
         <v>8</v>
       </c>
@@ -3216,7 +3396,9 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="10"/>
+      <c r="AB13" s="10" t="s">
+        <v>182</v>
+      </c>
       <c r="AC13" s="10">
         <v>8</v>
       </c>
@@ -3255,7 +3437,9 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AB14" s="10"/>
+      <c r="AB14" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="AC14" s="10">
         <v>8</v>
       </c>
@@ -3294,7 +3478,9 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="10"/>
+      <c r="AB15" s="10" t="s">
+        <v>184</v>
+      </c>
       <c r="AC15" s="10">
         <v>8</v>
       </c>
@@ -3441,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3528,10 +3714,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -3591,31 +3777,41 @@
       <c r="U3" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
+      <c r="V3" s="9">
+        <v>10</v>
+      </c>
+      <c r="W3" s="9">
+        <v>10</v>
+      </c>
+      <c r="X3" s="9">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>10</v>
+      </c>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="34" t="s">
+      <c r="AB3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AD3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AE3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="34" t="s">
+      <c r="AF3" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="9">
         <v>15</v>
       </c>
@@ -3673,17 +3869,27 @@
       <c r="U4" s="9">
         <v>30</v>
       </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
+      <c r="V4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" s="33" t="s">
+        <v>62</v>
+      </c>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
     </row>
     <row r="5" spans="1:32" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -3749,11 +3955,21 @@
       <c r="U5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
+      <c r="V5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="AB5" s="10" t="s">
         <v>140</v>
       </c>
@@ -4128,6 +4344,9 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
+      <c r="AB14" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="AC14" s="10">
         <v>8</v>
       </c>
@@ -4209,7 +4428,9 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
+      <c r="AB16" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="AC16" s="10">
         <v>8</v>
       </c>
@@ -4333,7 +4554,9 @@
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
+      <c r="AB19" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="AC19" s="10">
         <v>8</v>
       </c>
@@ -4373,7 +4596,9 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
+      <c r="AB20" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="AC20" s="10">
         <v>8</v>
       </c>
@@ -4623,7 +4848,9 @@
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
+      <c r="AB26" s="10" t="s">
+        <v>165</v>
+      </c>
       <c r="AC26" s="10">
         <v>8</v>
       </c>
@@ -4692,7 +4919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
@@ -4779,10 +5006,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -4832,25 +5059,25 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="34" t="s">
+      <c r="AB3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AD3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AE3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="34" t="s">
+      <c r="AF3" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="33" t="s">
         <v>72</v>
       </c>
@@ -4898,11 +5125,11 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
     </row>
     <row r="5" spans="1:32" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -5525,10 +5752,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -5549,13 +5776,13 @@
       <c r="H3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="34" t="s">
         <v>74</v>
       </c>
       <c r="L3" s="15" t="s">
@@ -5580,25 +5807,25 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="34" t="s">
+      <c r="AB3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AD3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AE3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="34" t="s">
+      <c r="AF3" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="15" t="s">
         <v>100</v>
       </c>
@@ -5648,11 +5875,11 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -6318,10 +6545,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -6379,25 +6606,25 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="38" t="s">
+      <c r="AB3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AD3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AE3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="34" t="s">
+      <c r="AF3" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="15" t="s">
         <v>63</v>
       </c>
@@ -6453,11 +6680,11 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -7477,8 +7704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3:AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7564,10 +7791,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15"/>
@@ -7595,25 +7822,25 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="34" t="s">
+      <c r="AB3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AD3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AE3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="34" t="s">
+      <c r="AF3" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -7639,11 +7866,11 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
     </row>
     <row r="5" spans="1:32" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">

--- a/Dienynas JAVA 0605.xlsx
+++ b/Dienynas JAVA 0605.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="9555" tabRatio="793" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="12960" windowHeight="6300" tabRatio="836" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1. Tarnyb. stotys" sheetId="2" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="6. Progr. įr. princ. metod." sheetId="14" r:id="rId6"/>
     <sheet name="7.Spring" sheetId="16" r:id="rId7"/>
     <sheet name="8.Rinka" sheetId="18" r:id="rId8"/>
+    <sheet name="Lapas1" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="206">
   <si>
     <t>mėnuo / diena</t>
   </si>
@@ -272,12 +273,6 @@
     <t>06 28</t>
   </si>
   <si>
-    <t>06 29</t>
-  </si>
-  <si>
-    <t>06 30</t>
-  </si>
-  <si>
     <t>07 01</t>
   </si>
   <si>
@@ -434,9 +429,6 @@
     <t>08 09</t>
   </si>
   <si>
-    <t>08 11</t>
-  </si>
-  <si>
     <t>08 13</t>
   </si>
   <si>
@@ -557,9 +549,6 @@
     <t>10 17</t>
   </si>
   <si>
-    <t xml:space="preserve">10 18 </t>
-  </si>
-  <si>
     <t>10 21</t>
   </si>
   <si>
@@ -576,6 +565,81 @@
   </si>
   <si>
     <t>10 28</t>
+  </si>
+  <si>
+    <t>10 29</t>
+  </si>
+  <si>
+    <t>10 30</t>
+  </si>
+  <si>
+    <t>10 31</t>
+  </si>
+  <si>
+    <t>11 04</t>
+  </si>
+  <si>
+    <t>11 05</t>
+  </si>
+  <si>
+    <t>11 06</t>
+  </si>
+  <si>
+    <t>11 07</t>
+  </si>
+  <si>
+    <t>11 08</t>
+  </si>
+  <si>
+    <t>11 11</t>
+  </si>
+  <si>
+    <t>11 12</t>
+  </si>
+  <si>
+    <t>11 13</t>
+  </si>
+  <si>
+    <t>06 25</t>
+  </si>
+  <si>
+    <t>07 12</t>
+  </si>
+  <si>
+    <t>08 12</t>
+  </si>
+  <si>
+    <t>09 10</t>
+  </si>
+  <si>
+    <t>09 11</t>
+  </si>
+  <si>
+    <t>09 12</t>
+  </si>
+  <si>
+    <t>09 13</t>
+  </si>
+  <si>
+    <t>09 16</t>
+  </si>
+  <si>
+    <t>09 17</t>
+  </si>
+  <si>
+    <t>09 18</t>
+  </si>
+  <si>
+    <t>09 25</t>
+  </si>
+  <si>
+    <t>09 27</t>
+  </si>
+  <si>
+    <t>10 18</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
 </sst>
 </file>
@@ -585,7 +649,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,6 +712,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="186"/>
@@ -779,7 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -891,6 +971,8 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Įprastas" xfId="0" builtinId="0"/>
@@ -1196,7 +1278,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3"/>
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,10 +1392,10 @@
         <v>62</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>73</v>
@@ -1321,7 +1403,9 @@
       <c r="M3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="N3" s="15"/>
+      <c r="N3" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -1355,39 +1439,41 @@
       <c r="A4" s="37"/>
       <c r="B4" s="38"/>
       <c r="C4" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="G4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -1447,7 +1533,9 @@
       <c r="M5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
@@ -1461,7 +1549,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
       <c r="AB5" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AC5" s="10">
         <v>8</v>
@@ -1502,7 +1590,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AB6" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC6" s="10">
         <v>4</v>
@@ -1543,7 +1631,7 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AB7" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AC7" s="10">
         <v>4</v>
@@ -1584,7 +1672,7 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AB8" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AC8" s="10">
         <v>8</v>
@@ -1625,7 +1713,7 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
       <c r="AB9" s="18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AC9" s="10">
         <v>8</v>
@@ -1666,7 +1754,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AB10" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AC10" s="10">
         <v>8</v>
@@ -1707,7 +1795,7 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
       <c r="AB11" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AC11" s="10">
         <v>8</v>
@@ -1748,7 +1836,7 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AB12" s="18" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AC12" s="10">
         <v>8</v>
@@ -1789,7 +1877,7 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AB13" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AC13" s="10">
         <v>8</v>
@@ -1830,7 +1918,7 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
       <c r="AB14" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AC14" s="10">
         <v>8</v>
@@ -1871,7 +1959,7 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AB15" s="18" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="AC15" s="10">
         <v>5</v>
@@ -1912,7 +2000,7 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
       <c r="AB16" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AC16" s="10">
         <v>3</v>
@@ -1953,7 +2041,7 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
       <c r="AB17" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AC17" s="10">
         <v>8</v>
@@ -2023,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2129,20 +2217,20 @@
       <c r="F3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>75</v>
+      <c r="G3" s="34" t="s">
+        <v>74</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>74</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>75</v>
@@ -2184,37 +2272,37 @@
       <c r="A4" s="37"/>
       <c r="B4" s="38"/>
       <c r="C4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="G4" s="15" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>75</v>
+        <v>64</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>65</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>176</v>
+        <v>69</v>
       </c>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
@@ -2290,7 +2378,7 @@
       <c r="Y5" s="18"/>
       <c r="Z5" s="18"/>
       <c r="AB5" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AC5" s="10">
         <v>4</v>
@@ -2331,7 +2419,7 @@
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
       <c r="AB6" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AC6" s="10">
         <v>4</v>
@@ -2372,7 +2460,7 @@
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
       <c r="AB7" s="18" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="AC7" s="10">
         <v>8</v>
@@ -2413,7 +2501,7 @@
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
       <c r="AB8" s="18" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="AC8" s="10">
         <v>8</v>
@@ -2454,7 +2542,7 @@
       <c r="Y9" s="18"/>
       <c r="Z9" s="18"/>
       <c r="AB9" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AC9" s="10">
         <v>8</v>
@@ -2495,7 +2583,7 @@
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
       <c r="AB10" s="18" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="AC10" s="10">
         <v>8</v>
@@ -2536,7 +2624,7 @@
       <c r="Y11" s="18"/>
       <c r="Z11" s="18"/>
       <c r="AB11" s="18" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="AC11" s="10">
         <v>8</v>
@@ -2577,7 +2665,7 @@
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
       <c r="AB12" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="AC12" s="10">
         <v>8</v>
@@ -2618,7 +2706,7 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
       <c r="AB13" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AC13" s="10">
         <v>8</v>
@@ -2659,7 +2747,7 @@
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
       <c r="AB14" s="18" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="AC14" s="10">
         <v>8</v>
@@ -2700,7 +2788,7 @@
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
       <c r="AB15" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AC15" s="10">
         <v>8</v>
@@ -2741,7 +2829,7 @@
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
       <c r="AB16" s="18" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="AC16" s="10">
         <v>8</v>
@@ -2810,7 +2898,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2932,9 +3020,15 @@
       <c r="L3" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="M3" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
@@ -2967,38 +3061,44 @@
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="O4" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
@@ -3054,9 +3154,15 @@
       <c r="L5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="M5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
@@ -3069,7 +3175,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
       <c r="AB5" s="10" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="AC5" s="10">
         <v>8</v>
@@ -3110,7 +3216,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AB6" s="10" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="AC6" s="10">
         <v>4</v>
@@ -3151,7 +3257,7 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AB7" s="10" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="AC7" s="10">
         <v>4</v>
@@ -3192,7 +3298,7 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AB8" s="10" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="AC8" s="10">
         <v>8</v>
@@ -3233,7 +3339,7 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
       <c r="AB9" s="10" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="AC9" s="10">
         <v>8</v>
@@ -3274,7 +3380,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AB10" s="10" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="AC10" s="10">
         <v>8</v>
@@ -3315,7 +3421,7 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
       <c r="AB11" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AC11" s="10">
         <v>8</v>
@@ -3356,7 +3462,7 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AB12" s="10" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="AC12" s="10">
         <v>8</v>
@@ -3397,7 +3503,7 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AB13" s="10" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="AC13" s="10">
         <v>8</v>
@@ -3438,7 +3544,7 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
       <c r="AB14" s="10" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="AC14" s="10">
         <v>8</v>
@@ -3479,7 +3585,7 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AB15" s="10" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AC15" s="10">
         <v>8</v>
@@ -3519,7 +3625,9 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AB16" s="10"/>
+      <c r="AB16" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="AC16" s="10">
         <v>8</v>
       </c>
@@ -3558,7 +3666,9 @@
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
-      <c r="AB17" s="10"/>
+      <c r="AB17" s="10" t="s">
+        <v>174</v>
+      </c>
       <c r="AC17" s="10">
         <v>8</v>
       </c>
@@ -3627,8 +3737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3777,21 +3887,17 @@
       <c r="U3" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="V3" s="9">
-        <v>10</v>
-      </c>
-      <c r="W3" s="9">
-        <v>10</v>
-      </c>
-      <c r="X3" s="9">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="9">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="9">
-        <v>10</v>
-      </c>
+      <c r="V3" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="35" t="s">
         <v>3</v>
@@ -3813,77 +3919,73 @@
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="9">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9">
         <v>15</v>
       </c>
-      <c r="D4" s="9">
+      <c r="E4" s="9">
         <v>16</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F4" s="9">
         <v>17</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="9">
         <v>18</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H4" s="9">
+        <v>14</v>
+      </c>
+      <c r="I4" s="9">
+        <v>16</v>
+      </c>
+      <c r="J4" s="9">
         <v>19</v>
       </c>
-      <c r="H4" s="9">
+      <c r="K4" s="9">
+        <v>20</v>
+      </c>
+      <c r="L4" s="9">
+        <v>21</v>
+      </c>
+      <c r="M4" s="9">
+        <v>22</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="9">
+        <v>10</v>
+      </c>
+      <c r="P4" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>12</v>
+      </c>
+      <c r="R4" s="9">
+        <v>13</v>
+      </c>
+      <c r="S4" s="9">
         <v>16</v>
       </c>
-      <c r="I4" s="9">
-        <v>19</v>
-      </c>
-      <c r="J4" s="9">
-        <v>20</v>
-      </c>
-      <c r="K4" s="9">
-        <v>21</v>
-      </c>
-      <c r="L4" s="9">
-        <v>22</v>
-      </c>
-      <c r="M4" s="9">
-        <v>23</v>
-      </c>
-      <c r="N4" s="9">
-        <v>19</v>
-      </c>
-      <c r="O4" s="9">
-        <v>20</v>
-      </c>
-      <c r="P4" s="9">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>24</v>
-      </c>
-      <c r="R4" s="9">
-        <v>25</v>
-      </c>
-      <c r="S4" s="9">
-        <v>26</v>
-      </c>
       <c r="T4" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="U4" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V4" s="33" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="W4" s="33" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="X4" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y4" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z4" s="33" t="s">
-        <v>62</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="36"/>
       <c r="AC4" s="36"/>
@@ -3964,14 +4066,10 @@
       <c r="X5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Y5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z5" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
       <c r="AB5" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AC5" s="10">
         <v>8</v>
@@ -4012,7 +4110,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AB6" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AC6" s="10">
         <v>8</v>
@@ -4053,7 +4151,7 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AB7" s="10" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AC7" s="10">
         <v>8</v>
@@ -4094,7 +4192,7 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AB8" s="10" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AC8" s="10">
         <v>8</v>
@@ -4135,7 +4233,7 @@
       <c r="Y9" s="31"/>
       <c r="Z9" s="31"/>
       <c r="AB9" s="31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AC9" s="31">
         <v>8</v>
@@ -4177,7 +4275,7 @@
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="10" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="AC10" s="10">
         <v>8</v>
@@ -4219,7 +4317,7 @@
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AC11" s="10">
         <v>8</v>
@@ -4261,7 +4359,7 @@
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="AC12" s="10">
         <v>8</v>
@@ -4303,7 +4401,7 @@
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="AC13" s="10">
         <v>8</v>
@@ -4345,7 +4443,7 @@
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
       <c r="AB14" s="6" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AC14" s="10">
         <v>8</v>
@@ -4387,7 +4485,7 @@
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AC15" s="10">
         <v>8</v>
@@ -4429,7 +4527,7 @@
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="AC16" s="10">
         <v>8</v>
@@ -4471,7 +4569,7 @@
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AC17" s="10">
         <v>8</v>
@@ -4513,7 +4611,7 @@
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AC18" s="10">
         <v>8</v>
@@ -4555,7 +4653,7 @@
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="AC19" s="10">
         <v>8</v>
@@ -4597,7 +4695,7 @@
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="AC20" s="10">
         <v>8</v>
@@ -4639,7 +4737,7 @@
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
       <c r="AB21" s="10" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="AC21" s="10">
         <v>8</v>
@@ -4681,7 +4779,7 @@
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AC22" s="10">
         <v>8</v>
@@ -4723,7 +4821,7 @@
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AC23" s="10">
         <v>8</v>
@@ -4765,7 +4863,7 @@
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AC24" s="10">
         <v>8</v>
@@ -4807,7 +4905,7 @@
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AC25" s="10">
         <v>8</v>
@@ -4849,7 +4947,7 @@
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="10" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="AC26" s="10">
         <v>8</v>
@@ -4919,7 +5017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
@@ -5097,19 +5195,19 @@
         <v>12</v>
       </c>
       <c r="I4" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J4" s="9">
+        <v>26</v>
+      </c>
+      <c r="K4" s="9">
         <v>27</v>
       </c>
-      <c r="K4" s="9">
+      <c r="L4" s="9">
         <v>28</v>
       </c>
-      <c r="L4" s="9">
+      <c r="M4" s="33">
         <v>29</v>
-      </c>
-      <c r="M4" s="33">
-        <v>30</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
@@ -5185,7 +5283,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
       <c r="AB5" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AC5" s="10">
         <v>8</v>
@@ -5226,7 +5324,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AB6" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AC6" s="10">
         <v>8</v>
@@ -5267,7 +5365,7 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AB7" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AC7" s="10">
         <v>8</v>
@@ -5308,7 +5406,7 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AB8" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AC8" s="10">
         <v>8</v>
@@ -5349,7 +5447,7 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
       <c r="AB9" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AC9" s="10">
         <v>8</v>
@@ -5390,7 +5488,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AB10" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AC10" s="10">
         <v>8</v>
@@ -5431,7 +5529,7 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
       <c r="AB11" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AC11" s="10">
         <v>8</v>
@@ -5472,7 +5570,7 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AB12" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AC12" s="10">
         <v>8</v>
@@ -5513,7 +5611,7 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AB13" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AC13" s="10">
         <v>8</v>
@@ -5554,7 +5652,7 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
       <c r="AB14" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AC14" s="10">
         <v>8</v>
@@ -5595,7 +5693,7 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AB15" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AC15" s="10">
         <v>8</v>
@@ -5665,7 +5763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
@@ -5777,7 +5875,7 @@
         <v>61</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" s="34" t="s">
         <v>74</v>
@@ -5827,40 +5925,40 @@
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>105</v>
-      </c>
       <c r="I4" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
@@ -5937,7 +6035,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
       <c r="AB5" s="10" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="AC5" s="10">
         <v>8</v>
@@ -5978,7 +6076,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AB6" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AC6" s="10">
         <v>8</v>
@@ -6019,7 +6117,7 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AB7" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC7" s="10">
         <v>8</v>
@@ -6060,7 +6158,7 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AB8" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AC8" s="10">
         <v>8</v>
@@ -6101,7 +6199,7 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
       <c r="AB9" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC9" s="10">
         <v>8</v>
@@ -6142,7 +6240,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AB10" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC10" s="10">
         <v>8</v>
@@ -6183,7 +6281,7 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
       <c r="AB11" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AC11" s="10">
         <v>8</v>
@@ -6224,7 +6322,7 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AB12" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC12" s="10">
         <v>8</v>
@@ -6265,7 +6363,7 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AB13" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AC13" s="10">
         <v>8</v>
@@ -6306,7 +6404,7 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
       <c r="AB14" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC14" s="10">
         <v>8</v>
@@ -6347,7 +6445,7 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AB15" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AC15" s="10">
         <v>8</v>
@@ -6388,7 +6486,7 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
       <c r="AB16" s="10" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AC16" s="10">
         <v>8</v>
@@ -6401,7 +6499,7 @@
       </c>
       <c r="AF16" s="10"/>
     </row>
-    <row r="17" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -6459,7 +6557,7 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6594,14 +6692,26 @@
         <v>62</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
@@ -6668,14 +6778,26 @@
         <v>76</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
+        <v>101</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
@@ -6738,12 +6860,24 @@
       <c r="Q5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
+      <c r="R5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
@@ -6789,7 +6923,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AB6" s="18" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AC6" s="10">
         <v>8</v>
@@ -6830,7 +6964,7 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AB7" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC7" s="10">
         <v>8</v>
@@ -6870,7 +7004,9 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="18"/>
+      <c r="AB8" s="18" t="s">
+        <v>81</v>
+      </c>
       <c r="AC8" s="10">
         <v>8</v>
       </c>
@@ -7155,7 +7291,9 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="18"/>
+      <c r="AB15" s="18" t="s">
+        <v>204</v>
+      </c>
       <c r="AC15" s="10">
         <v>8</v>
       </c>
@@ -7195,7 +7333,7 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
       <c r="AB16" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC16" s="10">
         <v>8</v>
@@ -7236,7 +7374,7 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
       <c r="AB17" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AC17" s="10">
         <v>8</v>
@@ -7277,7 +7415,7 @@
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
       <c r="AB18" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AC18" s="10">
         <v>8</v>
@@ -7318,7 +7456,7 @@
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
       <c r="AB19" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC19" s="10">
         <v>8</v>
@@ -7359,7 +7497,7 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
       <c r="AB20" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AC20" s="10">
         <v>8</v>
@@ -7400,7 +7538,7 @@
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
       <c r="AB21" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AC21" s="10">
         <v>8</v>
@@ -7440,7 +7578,9 @@
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
-      <c r="AB22" s="18"/>
+      <c r="AB22" s="18" t="s">
+        <v>175</v>
+      </c>
       <c r="AC22" s="10">
         <v>8</v>
       </c>
@@ -7479,7 +7619,9 @@
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
-      <c r="AB23" s="18"/>
+      <c r="AB23" s="18" t="s">
+        <v>176</v>
+      </c>
       <c r="AC23" s="10">
         <v>8</v>
       </c>
@@ -7518,7 +7660,9 @@
       <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
-      <c r="AB24" s="18"/>
+      <c r="AB24" s="18" t="s">
+        <v>177</v>
+      </c>
       <c r="AC24" s="10">
         <v>8</v>
       </c>
@@ -7557,7 +7701,9 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
-      <c r="AB25" s="18"/>
+      <c r="AB25" s="18" t="s">
+        <v>178</v>
+      </c>
       <c r="AC25" s="10">
         <v>8</v>
       </c>
@@ -7596,7 +7742,9 @@
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
-      <c r="AB26" s="18"/>
+      <c r="AB26" s="18" t="s">
+        <v>179</v>
+      </c>
       <c r="AC26" s="10">
         <v>8</v>
       </c>
@@ -7635,7 +7783,9 @@
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
-      <c r="AB27" s="18"/>
+      <c r="AB27" s="18" t="s">
+        <v>180</v>
+      </c>
       <c r="AC27" s="10">
         <v>8</v>
       </c>
@@ -7705,7 +7855,7 @@
   <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3:AD4"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7797,16 +7947,36 @@
       <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="C3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
@@ -7841,16 +8011,36 @@
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="C4" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
@@ -7879,16 +8069,36 @@
       <c r="B5" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -7903,7 +8113,9 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
-      <c r="AB5" s="10"/>
+      <c r="AB5" s="10" t="s">
+        <v>182</v>
+      </c>
       <c r="AC5" s="10">
         <v>8</v>
       </c>
@@ -7940,7 +8152,9 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AB6" s="10"/>
+      <c r="AB6" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="AC6" s="10">
         <v>8</v>
       </c>
@@ -7977,7 +8191,9 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
-      <c r="AB7" s="10"/>
+      <c r="AB7" s="10" t="s">
+        <v>184</v>
+      </c>
       <c r="AC7" s="10">
         <v>8</v>
       </c>
@@ -8014,7 +8230,9 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-      <c r="AB8" s="10"/>
+      <c r="AB8" s="10" t="s">
+        <v>185</v>
+      </c>
       <c r="AC8" s="10">
         <v>8</v>
       </c>
@@ -8051,7 +8269,9 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AB9" s="10"/>
+      <c r="AB9" s="10" t="s">
+        <v>186</v>
+      </c>
       <c r="AC9" s="10">
         <v>8</v>
       </c>
@@ -8088,7 +8308,9 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-      <c r="AB10" s="10"/>
+      <c r="AB10" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="AC10" s="10">
         <v>8</v>
       </c>
@@ -8125,7 +8347,9 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-      <c r="AB11" s="10"/>
+      <c r="AB11" s="10" t="s">
+        <v>188</v>
+      </c>
       <c r="AC11" s="10">
         <v>8</v>
       </c>
@@ -8162,7 +8386,9 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AB12" s="10"/>
+      <c r="AB12" s="10" t="s">
+        <v>189</v>
+      </c>
       <c r="AC12" s="10">
         <v>8</v>
       </c>
@@ -8199,7 +8425,9 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AB13" s="10"/>
+      <c r="AB13" s="10" t="s">
+        <v>190</v>
+      </c>
       <c r="AC13" s="10">
         <v>8</v>
       </c>
@@ -8236,7 +8464,9 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AB14" s="10"/>
+      <c r="AB14" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="AC14" s="10">
         <v>8</v>
       </c>
@@ -8246,7 +8476,7 @@
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
     </row>
-    <row r="15" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -8273,7 +8503,9 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AB15" s="10"/>
+      <c r="AB15" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="AC15" s="10">
         <v>4</v>
       </c>
@@ -8334,4 +8566,754 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O2" s="42">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>180</v>
+      </c>
+      <c r="R2" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" s="42">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>181</v>
+      </c>
+      <c r="R3" s="41"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="N4" t="s">
+        <v>161</v>
+      </c>
+      <c r="O4" s="42">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R4" s="41"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O5" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>183</v>
+      </c>
+      <c r="R5" s="41"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="N6" t="s">
+        <v>163</v>
+      </c>
+      <c r="O6" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>184</v>
+      </c>
+      <c r="R6" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>164</v>
+      </c>
+      <c r="O7" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>185</v>
+      </c>
+      <c r="R7" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>195</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O8" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>186</v>
+      </c>
+      <c r="R8" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>166</v>
+      </c>
+      <c r="O9" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>187</v>
+      </c>
+      <c r="R9" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>167</v>
+      </c>
+      <c r="O10" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>188</v>
+      </c>
+      <c r="R10" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>198</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>168</v>
+      </c>
+      <c r="O11" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>189</v>
+      </c>
+      <c r="R11" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>199</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>169</v>
+      </c>
+      <c r="O12" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>190</v>
+      </c>
+      <c r="R12" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>200</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>171</v>
+      </c>
+      <c r="O13" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>191</v>
+      </c>
+      <c r="R13" s="41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>201</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>172</v>
+      </c>
+      <c r="O14" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" s="42">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>174</v>
+      </c>
+      <c r="O15" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" s="42">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>204</v>
+      </c>
+      <c r="O16" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" s="42">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" s="42">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>176</v>
+      </c>
+      <c r="O18" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" s="42">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="K20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" s="42">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" s="42">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Dienynas JAVA 0605.xlsx
+++ b/Dienynas JAVA 0605.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="12960" windowHeight="6300" tabRatio="836" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="12960" windowHeight="6300" tabRatio="836"/>
   </bookViews>
   <sheets>
     <sheet name="1. Tarnyb. stotys" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="206">
   <si>
     <t>mėnuo / diena</t>
   </si>
@@ -953,6 +953,8 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -971,8 +973,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Įprastas" xfId="0" builtinId="0"/>
@@ -1277,7 +1277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
@@ -1364,10 +1364,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -1419,25 +1419,25 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="39" t="s">
+      <c r="AB3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="35" t="s">
+      <c r="AC3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="35" t="s">
+      <c r="AD3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="35" t="s">
+      <c r="AE3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="35" t="s">
+      <c r="AF3" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="15" t="s">
         <v>102</v>
       </c>
@@ -1487,11 +1487,11 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
@@ -2111,7 +2111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
@@ -2199,10 +2199,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -2252,25 +2252,25 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="39" t="s">
+      <c r="AB3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="35" t="s">
+      <c r="AC3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="35" t="s">
+      <c r="AD3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="35" t="s">
+      <c r="AE3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="35" t="s">
+      <c r="AF3" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="14" t="s">
         <v>61</v>
       </c>
@@ -2318,11 +2318,11 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
@@ -2984,10 +2984,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -3041,25 +3041,25 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="35" t="s">
+      <c r="AB3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="35" t="s">
+      <c r="AC3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="35" t="s">
+      <c r="AD3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="35" t="s">
+      <c r="AE3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="35" t="s">
+      <c r="AF3" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="15" t="s">
         <v>77</v>
       </c>
@@ -3111,11 +3111,11 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
     </row>
     <row r="5" spans="1:32" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -3824,10 +3824,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -3899,25 +3899,25 @@
       <c r="Y3" s="33"/>
       <c r="Z3" s="33"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="35" t="s">
+      <c r="AB3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="35" t="s">
+      <c r="AC3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="35" t="s">
+      <c r="AD3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="35" t="s">
+      <c r="AE3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="35" t="s">
+      <c r="AF3" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="9">
         <v>12</v>
       </c>
@@ -3987,11 +3987,11 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
     </row>
     <row r="5" spans="1:32" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -5017,7 +5017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
@@ -5104,10 +5104,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -5157,25 +5157,25 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="35" t="s">
+      <c r="AB3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="35" t="s">
+      <c r="AC3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="35" t="s">
+      <c r="AD3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="35" t="s">
+      <c r="AE3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="35" t="s">
+      <c r="AF3" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="33" t="s">
         <v>72</v>
       </c>
@@ -5223,11 +5223,11 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
     </row>
     <row r="5" spans="1:32" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -5763,7 +5763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
@@ -5850,10 +5850,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -5905,25 +5905,25 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="35" t="s">
+      <c r="AB3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="35" t="s">
+      <c r="AC3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="35" t="s">
+      <c r="AD3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="35" t="s">
+      <c r="AE3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="35" t="s">
+      <c r="AF3" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="15" t="s">
         <v>98</v>
       </c>
@@ -5973,11 +5973,11 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -6643,10 +6643,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -6716,25 +6716,25 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="39" t="s">
+      <c r="AB3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="35" t="s">
+      <c r="AC3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="35" t="s">
+      <c r="AD3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="35" t="s">
+      <c r="AE3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="35" t="s">
+      <c r="AF3" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="15" t="s">
         <v>63</v>
       </c>
@@ -6802,11 +6802,11 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
     </row>
     <row r="5" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -7854,8 +7854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7941,10 +7941,10 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -7954,7 +7954,7 @@
         <v>75</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>76</v>
@@ -7977,7 +7977,9 @@
       <c r="L3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="15"/>
+      <c r="M3" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
@@ -7992,56 +7994,58 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="35" t="s">
+      <c r="AB3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="35" t="s">
+      <c r="AC3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="35" t="s">
+      <c r="AD3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="35" t="s">
+      <c r="AE3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="35" t="s">
+      <c r="AF3" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
@@ -8056,11 +8060,11 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
     </row>
     <row r="5" spans="1:32" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -8099,7 +8103,9 @@
       <c r="L5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="M5" s="10"/>
+      <c r="M5" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -8624,13 +8630,13 @@
       <c r="N2" t="s">
         <v>159</v>
       </c>
-      <c r="O2" s="42">
+      <c r="O2" s="36">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
         <v>180</v>
       </c>
-      <c r="R2" s="41">
+      <c r="R2" s="35">
         <v>7</v>
       </c>
     </row>
@@ -8662,13 +8668,13 @@
       <c r="N3" t="s">
         <v>160</v>
       </c>
-      <c r="O3" s="42">
+      <c r="O3" s="36">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
         <v>181</v>
       </c>
-      <c r="R3" s="41"/>
+      <c r="R3" s="35"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -8698,13 +8704,13 @@
       <c r="N4" t="s">
         <v>161</v>
       </c>
-      <c r="O4" s="42">
+      <c r="O4" s="36">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
         <v>182</v>
       </c>
-      <c r="R4" s="41"/>
+      <c r="R4" s="35"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -8734,13 +8740,13 @@
       <c r="N5" t="s">
         <v>162</v>
       </c>
-      <c r="O5" s="42">
+      <c r="O5" s="36">
         <v>3</v>
       </c>
       <c r="Q5" t="s">
         <v>183</v>
       </c>
-      <c r="R5" s="41"/>
+      <c r="R5" s="35"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -8770,13 +8776,13 @@
       <c r="N6" t="s">
         <v>163</v>
       </c>
-      <c r="O6" s="42">
+      <c r="O6" s="36">
         <v>3</v>
       </c>
       <c r="Q6" t="s">
         <v>184</v>
       </c>
-      <c r="R6" s="41">
+      <c r="R6" s="35">
         <v>7</v>
       </c>
     </row>
@@ -8808,13 +8814,13 @@
       <c r="N7" t="s">
         <v>164</v>
       </c>
-      <c r="O7" s="42">
+      <c r="O7" s="36">
         <v>3</v>
       </c>
       <c r="Q7" t="s">
         <v>185</v>
       </c>
-      <c r="R7" s="41">
+      <c r="R7" s="35">
         <v>7</v>
       </c>
     </row>
@@ -8846,13 +8852,13 @@
       <c r="N8" t="s">
         <v>165</v>
       </c>
-      <c r="O8" s="42">
+      <c r="O8" s="36">
         <v>3</v>
       </c>
       <c r="Q8" t="s">
         <v>186</v>
       </c>
-      <c r="R8" s="41">
+      <c r="R8" s="35">
         <v>7</v>
       </c>
     </row>
@@ -8884,13 +8890,13 @@
       <c r="N9" t="s">
         <v>166</v>
       </c>
-      <c r="O9" s="42">
+      <c r="O9" s="36">
         <v>3</v>
       </c>
       <c r="Q9" t="s">
         <v>187</v>
       </c>
-      <c r="R9" s="41">
+      <c r="R9" s="35">
         <v>7</v>
       </c>
     </row>
@@ -8922,13 +8928,13 @@
       <c r="N10" t="s">
         <v>167</v>
       </c>
-      <c r="O10" s="42">
+      <c r="O10" s="36">
         <v>3</v>
       </c>
       <c r="Q10" t="s">
         <v>188</v>
       </c>
-      <c r="R10" s="41">
+      <c r="R10" s="35">
         <v>7</v>
       </c>
     </row>
@@ -8960,13 +8966,13 @@
       <c r="N11" t="s">
         <v>168</v>
       </c>
-      <c r="O11" s="42">
+      <c r="O11" s="36">
         <v>3</v>
       </c>
       <c r="Q11" t="s">
         <v>189</v>
       </c>
-      <c r="R11" s="41">
+      <c r="R11" s="35">
         <v>7</v>
       </c>
     </row>
@@ -8998,13 +9004,13 @@
       <c r="N12" t="s">
         <v>169</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O12" s="36">
         <v>3</v>
       </c>
       <c r="Q12" t="s">
         <v>190</v>
       </c>
-      <c r="R12" s="41">
+      <c r="R12" s="35">
         <v>7</v>
       </c>
     </row>
@@ -9036,13 +9042,13 @@
       <c r="N13" t="s">
         <v>171</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O13" s="36">
         <v>3</v>
       </c>
       <c r="Q13" t="s">
         <v>191</v>
       </c>
-      <c r="R13" s="41">
+      <c r="R13" s="35">
         <v>8</v>
       </c>
     </row>
@@ -9074,7 +9080,7 @@
       <c r="N14" t="s">
         <v>172</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="36">
         <v>3</v>
       </c>
     </row>
@@ -9100,13 +9106,13 @@
       <c r="K15" t="s">
         <v>154</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="36">
         <v>4</v>
       </c>
       <c r="N15" t="s">
         <v>174</v>
       </c>
-      <c r="O15" s="42">
+      <c r="O15" s="36">
         <v>3</v>
       </c>
     </row>
@@ -9132,13 +9138,13 @@
       <c r="K16" t="s">
         <v>155</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="36">
         <v>4</v>
       </c>
       <c r="N16" t="s">
         <v>204</v>
       </c>
-      <c r="O16" s="41">
+      <c r="O16" s="35">
         <v>7</v>
       </c>
     </row>
@@ -9164,13 +9170,13 @@
       <c r="K17" t="s">
         <v>156</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="36">
         <v>4</v>
       </c>
       <c r="N17" t="s">
         <v>175</v>
       </c>
-      <c r="O17" s="41">
+      <c r="O17" s="35">
         <v>7</v>
       </c>
     </row>
@@ -9196,13 +9202,13 @@
       <c r="K18" t="s">
         <v>157</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18" s="36">
         <v>2</v>
       </c>
       <c r="N18" t="s">
         <v>176</v>
       </c>
-      <c r="O18" s="41">
+      <c r="O18" s="35">
         <v>7</v>
       </c>
     </row>
@@ -9228,13 +9234,13 @@
       <c r="K19" t="s">
         <v>202</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19" s="36">
         <v>2</v>
       </c>
       <c r="N19" t="s">
         <v>177</v>
       </c>
-      <c r="O19" s="41">
+      <c r="O19" s="35">
         <v>7</v>
       </c>
     </row>
@@ -9260,13 +9266,13 @@
       <c r="K20" t="s">
         <v>158</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20" s="36">
         <v>2</v>
       </c>
       <c r="N20" t="s">
         <v>178</v>
       </c>
-      <c r="O20" s="41">
+      <c r="O20" s="35">
         <v>7</v>
       </c>
     </row>
@@ -9286,13 +9292,13 @@
       <c r="K21" t="s">
         <v>203</v>
       </c>
-      <c r="L21" s="42">
+      <c r="L21" s="36">
         <v>2</v>
       </c>
       <c r="N21" t="s">
         <v>179</v>
       </c>
-      <c r="O21" s="41">
+      <c r="O21" s="35">
         <v>7</v>
       </c>
     </row>
